--- a/Dimagi/ESPEN Collect forms/oncho_3_flies_sort.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_3_flies_sort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF54F50-8B83-43A9-A72C-6867AF6BB15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482F4584-8DB0-4C21-AD08-42F51FB58186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>r_End</t>
   </si>
   <si>
-    <t>1. Blackfly Sorting Modules</t>
-  </si>
-  <si>
     <t>oncho_3_flies_sort</t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>image</t>
+  </si>
+  <si>
+    <t>3. Blackfly Sorting Modules</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -919,10 +919,10 @@
         <v>31</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -940,10 +940,10 @@
         <v>31</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -961,10 +961,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -982,10 +982,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
@@ -1006,7 +1006,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="8"/>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
@@ -1049,10 +1049,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
@@ -1061,7 +1061,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1069,13 +1069,13 @@
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>30</v>
@@ -1097,10 +1097,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
@@ -1120,10 +1120,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
@@ -1143,10 +1143,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8"/>
@@ -1154,7 +1154,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1168,10 +1168,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
@@ -1191,10 +1191,10 @@
         <v>22</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
@@ -1214,10 +1214,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
@@ -1225,7 +1225,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1239,10 +1239,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8"/>
@@ -1260,10 +1260,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8"/>
@@ -1280,17 +1280,17 @@
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="10"/>
@@ -1409,134 +1409,134 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1550,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>

--- a/Dimagi/ESPEN Collect forms/oncho_3_flies_sort.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_3_flies_sort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482F4584-8DB0-4C21-AD08-42F51FB58186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A48F516-CFB0-426B-AF53-7216A7D154C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
   <si>
     <t>type</t>
   </si>
@@ -67,15 +67,9 @@
     <t>yes</t>
   </si>
   <si>
-    <t>geopoint</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
@@ -106,27 +100,12 @@
     <t>integer</t>
   </si>
   <si>
-    <t>regex(., '^[0-9]{2}$')</t>
-  </si>
-  <si>
-    <t>Must be two digit between 9 and 100</t>
-  </si>
-  <si>
     <t>read_only</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>r_RecorderID</t>
-  </si>
-  <si>
-    <t>Enter Recorder ID</t>
-  </si>
-  <si>
-    <t>2 digit code assigned to you</t>
-  </si>
-  <si>
     <t>Works best outside of buildings</t>
   </si>
   <si>
@@ -142,9 +121,6 @@
     <t>yes_no</t>
   </si>
   <si>
-    <t>r_Start</t>
-  </si>
-  <si>
     <t>r_End</t>
   </si>
   <si>
@@ -157,12 +133,6 @@
     <t>lbl_village_community</t>
   </si>
   <si>
-    <t>lbl_river</t>
-  </si>
-  <si>
-    <t>lbl_gps</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
@@ -187,9 +157,6 @@
     <t>num_confirmed_flies_trap</t>
   </si>
   <si>
-    <t>lbl_confirmed_flies_both</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -205,12 +172,6 @@
     <t>Village/Community:</t>
   </si>
   <si>
-    <t>River:</t>
-  </si>
-  <si>
-    <t>GPS Coordinates:</t>
-  </si>
-  <si>
     <t>Today's Date:</t>
   </si>
   <si>
@@ -295,9 +256,6 @@
     <t>signature</t>
   </si>
   <si>
-    <t>Total number of fies recorded in ${month}</t>
-  </si>
-  <si>
     <t>Total number of morphologically confirmed S. Damnosum in ${month}</t>
   </si>
   <si>
@@ -305,6 +263,77 @@
   </si>
   <si>
     <t>3. Blackfly Sorting Modules</t>
+  </si>
+  <si>
+    <t>lbl_gps_lat</t>
+  </si>
+  <si>
+    <t>lbl_gps_lng</t>
+  </si>
+  <si>
+    <t>In decimal</t>
+  </si>
+  <si>
+    <t>in decimal</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>. &lt; ${num_flies_hlc_catch}</t>
+  </si>
+  <si>
+    <t>. &lt; ${num_flies_trap_catch}</t>
+  </si>
+  <si>
+    <t>The number of HLC catch must be greater than HLC confirmed</t>
+  </si>
+  <si>
+    <t>The number of flies recorder in trap must be greater than confirmed flies recorded in trap</t>
+  </si>
+  <si>
+    <t>site_id</t>
+  </si>
+  <si>
+    <t>Enter the site ID</t>
+  </si>
+  <si>
+    <t>r_RiverName</t>
+  </si>
+  <si>
+    <t>Name of river or stream</t>
+  </si>
+  <si>
+    <t>r_RiverBasin</t>
+  </si>
+  <si>
+    <t>Name of river basin</t>
+  </si>
+  <si>
+    <t>Please enter the Latitude of the river basin</t>
+  </si>
+  <si>
+    <t>Please enter the Longitude of the river basin</t>
+  </si>
+  <si>
+    <t>.&lt;=date(today())</t>
+  </si>
+  <si>
+    <t>The date cannot be in the future</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Total number of flies recorded in ${month}</t>
+  </si>
+  <si>
+    <t>Total number of flies recorded in ${month}: **${lbl_recorded_flies_both}**
+Total number of morphologically confirmed S. Damnosum in ${month}: **${Total number of morphologically confirmed S. Damnosum in ${month}**
+Number of days of collection: **${days_of_collection}**</t>
   </si>
 </sst>
 </file>
@@ -364,7 +393,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +410,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEAF6"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -426,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -475,6 +522,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,13 +878,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -853,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -865,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>4</v>
@@ -883,88 +942,87 @@
         <v>8</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>29</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D2" s="10"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="10"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="12"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="10"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -972,43 +1030,49 @@
       <c r="G5" s="10"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="10"/>
@@ -1023,15 +1087,17 @@
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="10"/>
@@ -1041,27 +1107,31 @@
         <v>9</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="13"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1069,17 +1139,15 @@
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>30</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
@@ -1089,18 +1157,18 @@
         <v>9</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
@@ -1109,7 +1177,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1117,15 +1185,17 @@
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="10"/>
@@ -1138,40 +1208,38 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="10"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
@@ -1188,162 +1256,220 @@
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="10"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="I15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="M15" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
+      <c r="F16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="I18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="M18" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="10"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" s="6" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1365,13 +1491,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1379,164 +1505,164 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1563,24 +1689,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Dimagi/ESPEN Collect forms/oncho_3_flies_sort.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_3_flies_sort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A48F516-CFB0-426B-AF53-7216A7D154C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE6F9E9-B2E3-4936-AF1A-86846C4AFD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
   <si>
     <t>type</t>
   </si>
@@ -148,9 +148,6 @@
     <t>num_flies_trap_catch</t>
   </si>
   <si>
-    <t>lbl_recorded_flies_both</t>
-  </si>
-  <si>
     <t>num_confirmed_flies_hlc</t>
   </si>
   <si>
@@ -280,12 +277,6 @@
     <t>decimal</t>
   </si>
   <si>
-    <t>. &lt; ${num_flies_hlc_catch}</t>
-  </si>
-  <si>
-    <t>. &lt; ${num_flies_trap_catch}</t>
-  </si>
-  <si>
     <t>The number of HLC catch must be greater than HLC confirmed</t>
   </si>
   <si>
@@ -331,9 +322,21 @@
     <t>Total number of flies recorded in ${month}</t>
   </si>
   <si>
-    <t>Total number of flies recorded in ${month}: **${lbl_recorded_flies_both}**
-Total number of morphologically confirmed S. Damnosum in ${month}: **${Total number of morphologically confirmed S. Damnosum in ${month}**
+    <t>recorded_flies_both</t>
+  </si>
+  <si>
+    <t>total_num_confirmed_flies</t>
+  </si>
+  <si>
+    <t>Total number of flies recorded in ${month}: **${recorded_flies_both}**
+Total number of morphologically confirmed S. Damnosum in ${month}: **${total_num_confirmed_flies}**
 Number of days of collection: **${days_of_collection}**</t>
+  </si>
+  <si>
+    <t>. &lt;= ${num_flies_hlc_catch}</t>
+  </si>
+  <si>
+    <t>. &lt;= ${num_flies_trap_catch}</t>
   </si>
 </sst>
 </file>
@@ -884,7 +887,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -953,7 +956,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="8"/>
@@ -976,7 +979,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -996,10 +999,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -1019,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -1042,10 +1045,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
@@ -1062,16 +1065,16 @@
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1087,16 +1090,16 @@
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1118,15 +1121,15 @@
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1139,13 +1142,13 @@
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="8"/>
@@ -1168,7 +1171,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
@@ -1177,7 +1180,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1191,7 +1194,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>23</v>
@@ -1216,7 +1219,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8"/>
@@ -1239,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
@@ -1259,10 +1262,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
@@ -1270,7 +1273,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1284,18 +1287,18 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1311,18 +1314,18 @@
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1333,15 +1336,15 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8"/>
@@ -1349,7 +1352,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1363,10 +1366,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
@@ -1384,10 +1387,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="8"/>
@@ -1404,17 +1407,17 @@
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="10"/>
@@ -1429,13 +1432,13 @@
     </row>
     <row r="22" spans="1:13" s="6" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -1538,10 +1541,10 @@
         <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,10 +1552,10 @@
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,10 +1563,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,10 +1574,10 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,10 +1585,10 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,10 +1596,10 @@
         <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,10 +1607,10 @@
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,10 +1618,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,10 +1629,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,10 +1640,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1648,10 +1651,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,10 +1662,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1700,7 +1703,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>29</v>

--- a/Dimagi/ESPEN Collect forms/oncho_3_flies_sort.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_3_flies_sort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE6F9E9-B2E3-4936-AF1A-86846C4AFD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD3AFF4-7283-46DE-A961-38D649A5A514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
   <si>
     <t>type</t>
   </si>
@@ -106,9 +106,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Works best outside of buildings</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>r_End</t>
   </si>
   <si>
-    <t>oncho_3_flies_sort</t>
-  </si>
-  <si>
     <t>lbl_lga</t>
   </si>
   <si>
@@ -259,28 +253,13 @@
     <t>image</t>
   </si>
   <si>
-    <t>3. Blackfly Sorting Modules</t>
-  </si>
-  <si>
     <t>lbl_gps_lat</t>
   </si>
   <si>
     <t>lbl_gps_lng</t>
   </si>
   <si>
-    <t>In decimal</t>
-  </si>
-  <si>
-    <t>in decimal</t>
-  </si>
-  <si>
     <t>decimal</t>
-  </si>
-  <si>
-    <t>The number of HLC catch must be greater than HLC confirmed</t>
-  </si>
-  <si>
-    <t>The number of flies recorder in trap must be greater than confirmed flies recorded in trap</t>
   </si>
   <si>
     <t>site_id</t>
@@ -337,6 +316,33 @@
   </si>
   <si>
     <t>. &lt;= ${num_flies_trap_catch}</t>
+  </si>
+  <si>
+    <t>. &gt;= -90 and . &lt;= 90</t>
+  </si>
+  <si>
+    <t>. &gt;= -180 and . &lt;= 180</t>
+  </si>
+  <si>
+    <t>Please enter the latitude in decimal format. If the latitude is south of the equator, include a negative sign ("-"). For example: -4.305638</t>
+  </si>
+  <si>
+    <t>Please enter the longitude in decimal format. If the longitude is west of the prime meridian, include a negative sign ("-"). For example: -74.005941</t>
+  </si>
+  <si>
+    <t>Latitude must be between -90° and 90°.</t>
+  </si>
+  <si>
+    <t>Longitude must be between -180° and 180°.</t>
+  </si>
+  <si>
+    <t>There cannot be more flies confirmed then were caught</t>
+  </si>
+  <si>
+    <t>3. Blackfly Sorting Modules V2</t>
+  </si>
+  <si>
+    <t>oncho_3_flies_sort_v2</t>
   </si>
 </sst>
 </file>
@@ -883,11 +889,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -950,13 +956,13 @@
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="8"/>
@@ -973,13 +979,13 @@
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -999,10 +1005,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -1022,10 +1028,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -1045,10 +1051,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
@@ -1063,22 +1069,26 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
+      <c r="F7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
@@ -1088,22 +1098,26 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
+      <c r="F8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
@@ -1115,21 +1129,21 @@
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1142,13 +1156,13 @@
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="8"/>
@@ -1168,10 +1182,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
@@ -1180,7 +1194,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1191,14 +1205,12 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="10"/>
@@ -1216,10 +1228,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8"/>
@@ -1239,10 +1251,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
@@ -1262,10 +1274,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
@@ -1273,7 +1285,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1287,18 +1299,18 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1309,23 +1321,23 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:13" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1341,10 +1353,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8"/>
@@ -1352,7 +1364,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1366,10 +1378,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
@@ -1387,10 +1399,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="8"/>
@@ -1407,17 +1419,17 @@
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="10"/>
@@ -1432,13 +1444,13 @@
     </row>
     <row r="22" spans="1:13" s="6" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -1456,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1508,26 +1520,26 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -1538,134 +1550,134 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1678,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1703,10 +1715,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>

--- a/Dimagi/ESPEN Collect forms/oncho_3_flies_sort.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_3_flies_sort.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD3AFF4-7283-46DE-A961-38D649A5A514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352BC48B-91B2-433F-91F3-3D2108EA0617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="107">
   <si>
     <t>type</t>
   </si>
@@ -339,10 +339,25 @@
     <t>There cannot be more flies confirmed then were caught</t>
   </si>
   <si>
-    <t>3. Blackfly Sorting Modules V2</t>
-  </si>
-  <si>
-    <t>oncho_3_flies_sort_v2</t>
+    <t>Enter Recorder ID</t>
+  </si>
+  <si>
+    <t>2 digit code assigned to you</t>
+  </si>
+  <si>
+    <t>regex(., '^[0-9]{2}$')</t>
+  </si>
+  <si>
+    <t>Must be two digit between 9 and 100</t>
+  </si>
+  <si>
+    <t>RecorderID</t>
+  </si>
+  <si>
+    <t>3. Blackfly Sorting Modules V3</t>
+  </si>
+  <si>
+    <t>oncho_3_flies_sort_v3</t>
   </si>
 </sst>
 </file>
@@ -887,13 +902,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -954,27 +969,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10"/>
+      <c r="F2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -982,14 +1002,14 @@
         <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="10"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1002,17 +1022,17 @@
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="10"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1028,14 +1048,14 @@
         <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="10"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1046,15 +1066,15 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
@@ -1069,26 +1089,20 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>97</v>
-      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
@@ -1103,20 +1117,20 @@
         <v>74</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1127,23 +1141,25 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1156,36 +1172,40 @@
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
+      <c r="F10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="13"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
@@ -1194,21 +1214,21 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
@@ -1217,7 +1237,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -1228,10 +1248,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8"/>
@@ -1251,10 +1271,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
@@ -1269,72 +1289,68 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="10"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="I16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="M16" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>99</v>
@@ -1353,56 +1369,62 @@
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
+      <c r="F18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="10"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="M19" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="8"/>
@@ -1410,27 +1432,23 @@
       <c r="G20" s="10"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="10"/>
       <c r="H21" s="8"/>
@@ -1442,45 +1460,70 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" s="6" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" s="6" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B23" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C23" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-    </row>
-    <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1715,10 +1758,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>

--- a/Dimagi/ESPEN Collect forms/oncho_3_flies_sort.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_3_flies_sort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352BC48B-91B2-433F-91F3-3D2108EA0617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD30E1-ECF9-449D-ADA8-FB823735E191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
   <si>
     <t>type</t>
   </si>
@@ -354,10 +354,16 @@
     <t>RecorderID</t>
   </si>
   <si>
-    <t>3. Blackfly Sorting Modules V3</t>
-  </si>
-  <si>
-    <t>oncho_3_flies_sort_v3</t>
+    <t>oncho_3_flies_sort_v4</t>
+  </si>
+  <si>
+    <t>3. Blackfly Sorting Modules V4</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>state</t>
   </si>
 </sst>
 </file>
@@ -902,13 +908,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1002,10 +1008,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -1025,14 +1031,14 @@
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="12"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="10"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1045,17 +1051,17 @@
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="10"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1071,14 +1077,14 @@
         <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="10"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1089,15 +1095,15 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="8"/>
@@ -1112,26 +1118,20 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D8" s="10"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>97</v>
-      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
@@ -1146,20 +1146,20 @@
         <v>74</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1170,23 +1170,25 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1199,36 +1201,40 @@
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
+      <c r="F11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K11" s="8"/>
-      <c r="L11" s="13"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
@@ -1237,21 +1243,21 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8"/>
@@ -1260,7 +1266,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -1271,10 +1277,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
@@ -1294,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
@@ -1312,72 +1318,68 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="10"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="I17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="M17" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>99</v>
@@ -1396,56 +1398,62 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="10"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="M20" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8"/>
@@ -1453,27 +1461,23 @@
       <c r="G21" s="10"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="10"/>
       <c r="H22" s="8"/>
@@ -1485,45 +1489,70 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13" s="6" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" s="6" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B24" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-    </row>
-    <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1734,7 +1763,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1758,10 +1787,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
